--- a/dataset schema/dataset_schema_notes.xlsx
+++ b/dataset schema/dataset_schema_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8fd1bd11cd8af38/Documents/University Documents/MSc Data Science/09-Data-Science-Project/Project/dataset schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC104848419859645ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1781B9-6615-4FB4-9C0B-99DEA6E11653}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC104848419859645ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75EF5A6-39C1-472B-8056-F51017A6113E}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17190" yWindow="1890" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>schema name</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Draft dataset schema with some optomisation of data. Panel data still being collected and not included</t>
+  </si>
+  <si>
+    <t>EPSRC_Grant_Data_Schema</t>
+  </si>
+  <si>
+    <t>Resolved issues with previous scheme and produced it in a an app that allows R data type notation, fixing the data types used</t>
   </si>
 </sst>
 </file>
@@ -123,8 +129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBE9B60A-C66B-4673-85A6-2C458E0D61EE}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C3" xr:uid="{FBE9B60A-C66B-4673-85A6-2C458E0D61EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBE9B60A-C66B-4673-85A6-2C458E0D61EE}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C4" xr:uid="{FBE9B60A-C66B-4673-85A6-2C458E0D61EE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B2B1C591-02DE-48B2-848E-EFA238DADBCF}" name="schema name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{67B8D157-A82B-4613-9E01-67CD410B4B07}" name="data" dataDxfId="1"/>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C8:C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +449,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44421</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
